--- a/Energy Consumption31.xlsx
+++ b/Energy Consumption31.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C48"/>
+  <dimension ref="A1:C46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -450,10 +450,10 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>5.162200681611288</v>
+        <v>1.175807664859074</v>
       </c>
       <c r="C2" t="n">
-        <v>2.204671473228372</v>
+        <v>1.13398605744893</v>
       </c>
     </row>
     <row r="3">
@@ -461,10 +461,10 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>9.652663256784546</v>
+        <v>1.890136193836282</v>
       </c>
       <c r="C3" t="n">
-        <v>4.231823602060612</v>
+        <v>2.372325209979794</v>
       </c>
     </row>
     <row r="4">
@@ -472,10 +472,10 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>15.89339297882485</v>
+        <v>10.55753202155323</v>
       </c>
       <c r="C4" t="n">
-        <v>6.595098871621811</v>
+        <v>3.446377943335892</v>
       </c>
     </row>
     <row r="5">
@@ -483,10 +483,10 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>17.89593821660233</v>
+        <v>11.79587434895072</v>
       </c>
       <c r="C5" t="n">
-        <v>8.67184382175709</v>
+        <v>4.91237614707967</v>
       </c>
     </row>
     <row r="6">
@@ -494,10 +494,10 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>19.53681260475474</v>
+        <v>14.15087881023633</v>
       </c>
       <c r="C6" t="n">
-        <v>10.71572932846703</v>
+        <v>5.952383050883469</v>
       </c>
     </row>
     <row r="7">
@@ -505,10 +505,10 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>22.88313252755087</v>
+        <v>14.82028241398831</v>
       </c>
       <c r="C7" t="n">
-        <v>12.82384302718172</v>
+        <v>7.195219367424396</v>
       </c>
     </row>
     <row r="8">
@@ -516,10 +516,10 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>23.27495257117453</v>
+        <v>20.47054950121574</v>
       </c>
       <c r="C8" t="n">
-        <v>15.06588356595547</v>
+        <v>8.835744457780587</v>
       </c>
     </row>
     <row r="9">
@@ -527,10 +527,10 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>23.84291361736953</v>
+        <v>20.5788552329452</v>
       </c>
       <c r="C9" t="n">
-        <v>17.41494199960914</v>
+        <v>10.02454788898532</v>
       </c>
     </row>
     <row r="10">
@@ -538,10 +538,10 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>24.11527724069402</v>
+        <v>25.07479397661175</v>
       </c>
       <c r="C10" t="n">
-        <v>19.57995723680078</v>
+        <v>11.29067658140405</v>
       </c>
     </row>
     <row r="11">
@@ -549,10 +549,10 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>27.08439700970897</v>
+        <v>29.27589467309789</v>
       </c>
       <c r="C11" t="n">
-        <v>21.97011528575776</v>
+        <v>12.70779535262184</v>
       </c>
     </row>
     <row r="12">
@@ -560,10 +560,10 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>28.98124339970684</v>
+        <v>29.41898760410663</v>
       </c>
       <c r="C12" t="n">
-        <v>24.21340864117067</v>
+        <v>13.93300158041861</v>
       </c>
     </row>
     <row r="13">
@@ -571,10 +571,10 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>34.98737190701449</v>
+        <v>33.49016702753072</v>
       </c>
       <c r="C13" t="n">
-        <v>26.32795580758233</v>
+        <v>15.11773759569614</v>
       </c>
     </row>
     <row r="14">
@@ -582,10 +582,10 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>37.90293663079149</v>
+        <v>33.85918721095751</v>
       </c>
       <c r="C14" t="n">
-        <v>28.34214530251571</v>
+        <v>16.34023581721498</v>
       </c>
     </row>
     <row r="15">
@@ -593,10 +593,10 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>38.31316057730533</v>
+        <v>35.15338654512304</v>
       </c>
       <c r="C15" t="n">
-        <v>30.53193840411376</v>
+        <v>17.7277679083827</v>
       </c>
     </row>
     <row r="16">
@@ -604,10 +604,10 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>39.16108477632428</v>
+        <v>41.24098687204323</v>
       </c>
       <c r="C16" t="n">
-        <v>32.65490030218398</v>
+        <v>18.83749431095422</v>
       </c>
     </row>
     <row r="17">
@@ -615,10 +615,10 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>42.41716449653365</v>
+        <v>41.44217153928044</v>
       </c>
       <c r="C17" t="n">
-        <v>34.80031271940115</v>
+        <v>20.03409627590943</v>
       </c>
     </row>
     <row r="18">
@@ -626,10 +626,10 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>43.27040471849124</v>
+        <v>48.07760326123481</v>
       </c>
       <c r="C18" t="n">
-        <v>37.33836464956246</v>
+        <v>21.52304310774542</v>
       </c>
     </row>
     <row r="19">
@@ -637,10 +637,10 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>44.24843041854022</v>
+        <v>53.01559644521714</v>
       </c>
       <c r="C19" t="n">
-        <v>39.39164444729735</v>
+        <v>22.67318962747508</v>
       </c>
     </row>
     <row r="20">
@@ -648,10 +648,10 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>45.24652911550882</v>
+        <v>53.99210123626273</v>
       </c>
       <c r="C20" t="n">
-        <v>41.74364490454577</v>
+        <v>23.83170405555349</v>
       </c>
     </row>
     <row r="21">
@@ -659,10 +659,10 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>45.59012467151663</v>
+        <v>55.13018427940021</v>
       </c>
       <c r="C21" t="n">
-        <v>44.00296606480966</v>
+        <v>25.00666805568065</v>
       </c>
     </row>
     <row r="22">
@@ -670,10 +670,10 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>48.47743368343193</v>
+        <v>55.86198697690834</v>
       </c>
       <c r="C22" t="n">
-        <v>46.6514860028357</v>
+        <v>26.11492771047858</v>
       </c>
     </row>
     <row r="23">
@@ -681,10 +681,10 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>49.47935573980389</v>
+        <v>60.23622803199274</v>
       </c>
       <c r="C23" t="n">
-        <v>49.00132553331096</v>
+        <v>27.09286354420058</v>
       </c>
     </row>
     <row r="24">
@@ -692,10 +692,10 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>52.25414272919284</v>
+        <v>60.35363175490529</v>
       </c>
       <c r="C24" t="n">
-        <v>51.33920894212261</v>
+        <v>28.28126436450325</v>
       </c>
     </row>
     <row r="25">
@@ -703,10 +703,10 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>55.73531669752762</v>
+        <v>62.38020449461661</v>
       </c>
       <c r="C25" t="n">
-        <v>53.43490530483378</v>
+        <v>29.61829324705363</v>
       </c>
     </row>
     <row r="26">
@@ -714,10 +714,10 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>56.11362877727401</v>
+        <v>62.84669979531517</v>
       </c>
       <c r="C26" t="n">
-        <v>55.54261488703411</v>
+        <v>30.8614845716239</v>
       </c>
     </row>
     <row r="27">
@@ -725,10 +725,10 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>56.63923042660976</v>
+        <v>65.31098763305725</v>
       </c>
       <c r="C27" t="n">
-        <v>58.06492000632822</v>
+        <v>32.68827877993377</v>
       </c>
     </row>
     <row r="28">
@@ -736,10 +736,10 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>61.13275083194733</v>
+        <v>67.36485895618766</v>
       </c>
       <c r="C28" t="n">
-        <v>60.43490378504674</v>
+        <v>33.83002510780443</v>
       </c>
     </row>
     <row r="29">
@@ -747,10 +747,10 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>61.41204275135117</v>
+        <v>68.81517751687038</v>
       </c>
       <c r="C29" t="n">
-        <v>62.56676215515367</v>
+        <v>34.9599537442171</v>
       </c>
     </row>
     <row r="30">
@@ -758,10 +758,10 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>64.71785093959586</v>
+        <v>70.23275180143851</v>
       </c>
       <c r="C30" t="n">
-        <v>64.7405450799676</v>
+        <v>36.07184543039403</v>
       </c>
     </row>
     <row r="31">
@@ -769,10 +769,10 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>65.56917613990517</v>
+        <v>73.16266590261644</v>
       </c>
       <c r="C31" t="n">
-        <v>67.2743336579187</v>
+        <v>37.22344491475403</v>
       </c>
     </row>
     <row r="32">
@@ -780,10 +780,10 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>66.69547569589035</v>
+        <v>73.48527287084863</v>
       </c>
       <c r="C32" t="n">
-        <v>69.49603591876682</v>
+        <v>38.41200214299177</v>
       </c>
     </row>
     <row r="33">
@@ -791,10 +791,10 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>68.27331244389599</v>
+        <v>75.31741024587748</v>
       </c>
       <c r="C33" t="n">
-        <v>72.1614942245327</v>
+        <v>40.09215433832844</v>
       </c>
     </row>
     <row r="34">
@@ -802,10 +802,10 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>72.97961427759849</v>
+        <v>75.83721838253209</v>
       </c>
       <c r="C34" t="n">
-        <v>74.05147931602535</v>
+        <v>41.47683125873904</v>
       </c>
     </row>
     <row r="35">
@@ -813,10 +813,10 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>73.21460542053349</v>
+        <v>76.41803389444897</v>
       </c>
       <c r="C35" t="n">
-        <v>76.28371622426864</v>
+        <v>42.69403660125447</v>
       </c>
     </row>
     <row r="36">
@@ -824,10 +824,10 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>74.51215141483164</v>
+        <v>76.65015904251213</v>
       </c>
       <c r="C36" t="n">
-        <v>78.68608681354571</v>
+        <v>44.25894942602997</v>
       </c>
     </row>
     <row r="37">
@@ -835,10 +835,10 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>74.67085179094974</v>
+        <v>76.89922382769485</v>
       </c>
       <c r="C37" t="n">
-        <v>81.14491032588749</v>
+        <v>45.60789493978878</v>
       </c>
     </row>
     <row r="38">
@@ -846,10 +846,10 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>77.59827425862433</v>
+        <v>77.0401958641299</v>
       </c>
       <c r="C38" t="n">
-        <v>83.24620040582326</v>
+        <v>46.97306082960549</v>
       </c>
     </row>
     <row r="39">
@@ -857,10 +857,10 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>79.66691231029067</v>
+        <v>78.69519984507095</v>
       </c>
       <c r="C39" t="n">
-        <v>85.56742977345733</v>
+        <v>48.19666393475044</v>
       </c>
     </row>
     <row r="40">
@@ -868,10 +868,10 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>81.35068245609311</v>
+        <v>82.80540523957582</v>
       </c>
       <c r="C40" t="n">
-        <v>87.72139711856673</v>
+        <v>49.4218742261416</v>
       </c>
     </row>
     <row r="41">
@@ -879,10 +879,10 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>81.77322432694673</v>
+        <v>82.89968142660743</v>
       </c>
       <c r="C41" t="n">
-        <v>89.89719312289333</v>
+        <v>50.65038361887588</v>
       </c>
     </row>
     <row r="42">
@@ -890,10 +890,10 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>84.80714030591251</v>
+        <v>86.07006188353581</v>
       </c>
       <c r="C42" t="n">
-        <v>92.08888137868082</v>
+        <v>51.91274043883428</v>
       </c>
     </row>
     <row r="43">
@@ -901,10 +901,10 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>89.15050498625797</v>
+        <v>86.81130724751085</v>
       </c>
       <c r="C43" t="n">
-        <v>94.2518933783998</v>
+        <v>53.11445583696225</v>
       </c>
     </row>
     <row r="44">
@@ -912,10 +912,10 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>92.48286470117901</v>
+        <v>90.64465285293386</v>
       </c>
       <c r="C44" t="n">
-        <v>96.28384794517277</v>
+        <v>54.31175463880344</v>
       </c>
     </row>
     <row r="45">
@@ -923,10 +923,10 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>94.49010673725557</v>
+        <v>96.17760844488181</v>
       </c>
       <c r="C45" t="n">
-        <v>98.48182228270188</v>
+        <v>55.49200645455882</v>
       </c>
     </row>
     <row r="46">
@@ -934,32 +934,10 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>95.23966833072527</v>
+        <v>97.0685021886399</v>
       </c>
       <c r="C46" t="n">
-        <v>101.173314731848</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" s="1" t="n">
-        <v>45</v>
-      </c>
-      <c r="B47" t="n">
-        <v>97.41143998930625</v>
-      </c>
-      <c r="C47" t="n">
-        <v>103.4073713125795</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" s="1" t="n">
-        <v>46</v>
-      </c>
-      <c r="B48" t="n">
-        <v>98.01979835395933</v>
-      </c>
-      <c r="C48" t="n">
-        <v>105.7418486716952</v>
+        <v>56.73106741776657</v>
       </c>
     </row>
   </sheetData>
